--- a/event-attendee-list.xlsx
+++ b/event-attendee-list.xlsx
@@ -3309,8 +3309,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -3337,8 +3337,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3353,43 +3414,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3404,30 +3467,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3435,46 +3474,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3489,7 +3489,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3501,7 +3633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3513,31 +3651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,127 +3663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3680,39 +3680,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3727,36 +3694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3780,153 +3717,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4259,14 +4259,14 @@
   <sheetPr/>
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="36.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
   </cols>
@@ -4471,7 +4471,7 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E6" t="s">
@@ -5155,7 +5155,7 @@
       <c r="C24" t="s">
         <v>141</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E24" t="s">
@@ -11922,8 +11922,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D202" r:id="rId1" display="jishajibichan@gmail.com"/>
+    <hyperlink ref="D202" r:id="rId1" display="jishajibichan@gmail.com" tooltip="mailto:jishajibichan@gmail.com"/>
     <hyperlink ref="D5" r:id="rId2" display="sharonag2000@gmail.com"/>
+    <hyperlink ref="D24" r:id="rId3" display="u2007044@rajagiri.edu.in"/>
+    <hyperlink ref="D6" r:id="rId4" display="u1803136@rajagiri.edu.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/event-attendee-list.xlsx
+++ b/event-attendee-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1094">
   <si>
     <t>BOOKING ID</t>
   </si>
@@ -760,9 +760,6 @@
     <t>u200507@rajagiri.edu.in</t>
   </si>
   <si>
-    <t>8590546752</t>
-  </si>
-  <si>
     <t>OPV3R0GF</t>
   </si>
   <si>
@@ -1547,9 +1544,6 @@
   </si>
   <si>
     <t>u3003098@rajagiri.edu.in</t>
-  </si>
-  <si>
-    <t>7510431739</t>
   </si>
   <si>
     <t>Rajagiri</t>
@@ -3309,12 +3303,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3337,11 +3331,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3354,7 +3355,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3382,14 +3397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -3397,24 +3404,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3425,6 +3416,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3451,10 +3450,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3467,14 +3467,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3489,7 +3490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3507,31 +3508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3543,7 +3532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3561,6 +3550,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3573,25 +3640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3609,67 +3664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3680,6 +3681,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3698,35 +3728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3738,6 +3739,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3771,171 +3781,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4259,15 +4266,17 @@
   <sheetPr/>
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="29.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="36.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778"/>
     <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4395,7 +4404,7 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -5836,14 +5845,14 @@
       <c r="B42" t="s">
         <v>245</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E42" t="s">
-        <v>248</v>
+      <c r="E42">
+        <v>8590546752</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -5869,19 +5878,19 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
         <v>249</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>250</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>251</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>252</v>
-      </c>
-      <c r="E43" t="s">
-        <v>253</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -5902,24 +5911,24 @@
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" t="s">
         <v>255</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>256</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>257</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>258</v>
-      </c>
-      <c r="E44" t="s">
-        <v>259</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -5940,24 +5949,24 @@
         <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" t="s">
         <v>261</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>262</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>263</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>264</v>
-      </c>
-      <c r="E45" t="s">
-        <v>265</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -5983,37 +5992,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s">
         <v>266</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>267</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>268</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>269</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
         <v>270</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="s">
-        <v>271</v>
       </c>
       <c r="L46" t="s">
         <v>21</v>
@@ -6021,19 +6030,19 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" t="s">
         <v>272</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>273</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>274</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>275</v>
-      </c>
-      <c r="E47" t="s">
-        <v>276</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -6054,24 +6063,24 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
         <v>277</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>278</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>279</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>280</v>
-      </c>
-      <c r="E48" t="s">
-        <v>281</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -6097,19 +6106,19 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" t="s">
         <v>282</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>283</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>284</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>285</v>
-      </c>
-      <c r="E49" t="s">
-        <v>286</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -6135,19 +6144,19 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
         <v>287</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>288</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>289</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>290</v>
-      </c>
-      <c r="E50" t="s">
-        <v>291</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -6168,42 +6177,42 @@
         <v>59</v>
       </c>
       <c r="L50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
         <v>293</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>294</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>295</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>296</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
         <v>297</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" t="s">
-        <v>298</v>
       </c>
       <c r="L51" t="s">
         <v>21</v>
@@ -6211,19 +6220,19 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" t="s">
         <v>299</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>300</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>301</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>302</v>
-      </c>
-      <c r="E52" t="s">
-        <v>303</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -6249,37 +6258,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" t="s">
         <v>304</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>305</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>306</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>307</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
         <v>308</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>309</v>
       </c>
       <c r="L53" t="s">
         <v>21</v>
@@ -6287,37 +6296,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" t="s">
         <v>310</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>311</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>312</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>313</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
         <v>314</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" t="s">
-        <v>315</v>
       </c>
       <c r="L54" t="s">
         <v>60</v>
@@ -6325,19 +6334,19 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" t="s">
         <v>316</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>317</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>318</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>319</v>
-      </c>
-      <c r="E55" t="s">
-        <v>320</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -6363,19 +6372,19 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" t="s">
         <v>321</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>322</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>323</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>324</v>
-      </c>
-      <c r="E56" t="s">
-        <v>325</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -6401,19 +6410,19 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" t="s">
         <v>326</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>327</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>328</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>329</v>
-      </c>
-      <c r="E57" t="s">
-        <v>330</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -6439,19 +6448,19 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" t="s">
         <v>331</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>332</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>333</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>334</v>
-      </c>
-      <c r="E58" t="s">
-        <v>335</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -6472,24 +6481,24 @@
         <v>59</v>
       </c>
       <c r="L58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" t="s">
         <v>337</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>338</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>339</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>340</v>
-      </c>
-      <c r="E59" t="s">
-        <v>341</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -6515,19 +6524,19 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B60" t="s">
         <v>342</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>343</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>344</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>345</v>
-      </c>
-      <c r="E60" t="s">
-        <v>346</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -6553,19 +6562,19 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" t="s">
         <v>347</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>348</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>349</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>350</v>
-      </c>
-      <c r="E61" t="s">
-        <v>351</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -6591,19 +6600,19 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" t="s">
         <v>352</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>353</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>354</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>355</v>
-      </c>
-      <c r="E62" t="s">
-        <v>356</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -6624,24 +6633,24 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" t="s">
         <v>357</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>358</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>359</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>360</v>
-      </c>
-      <c r="E63" t="s">
-        <v>361</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -6667,19 +6676,19 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" t="s">
         <v>362</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>363</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>364</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>365</v>
-      </c>
-      <c r="E64" t="s">
-        <v>366</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -6705,19 +6714,19 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s">
         <v>367</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>368</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>369</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>370</v>
-      </c>
-      <c r="E65" t="s">
-        <v>371</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -6743,19 +6752,19 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" t="s">
         <v>372</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>373</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>374</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>375</v>
-      </c>
-      <c r="E66" t="s">
-        <v>376</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -6781,57 +6790,57 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" t="s">
         <v>377</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>378</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>379</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>380</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>314</v>
+      </c>
+      <c r="L67" t="s">
         <v>381</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" t="s">
-        <v>315</v>
-      </c>
-      <c r="L67" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B68" t="s">
         <v>383</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>384</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>385</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>386</v>
-      </c>
-      <c r="E68" t="s">
-        <v>387</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -6857,37 +6866,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" t="s">
         <v>388</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>389</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>390</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>391</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
         <v>392</v>
-      </c>
-      <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" t="s">
-        <v>393</v>
       </c>
       <c r="L69" t="s">
         <v>21</v>
@@ -6895,19 +6904,19 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70" t="s">
         <v>394</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>395</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>396</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>397</v>
-      </c>
-      <c r="E70" t="s">
-        <v>398</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -6933,37 +6942,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
+        <v>398</v>
+      </c>
+      <c r="B71" t="s">
         <v>399</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>400</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>401</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>402</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
         <v>403</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" t="s">
-        <v>404</v>
       </c>
       <c r="L71" t="s">
         <v>21</v>
@@ -6971,19 +6980,19 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
+        <v>404</v>
+      </c>
+      <c r="B72" t="s">
         <v>405</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>406</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>407</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>408</v>
-      </c>
-      <c r="E72" t="s">
-        <v>409</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -7009,19 +7018,19 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" t="s">
         <v>410</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>411</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>412</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>413</v>
-      </c>
-      <c r="E73" t="s">
-        <v>414</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -7042,24 +7051,24 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
+        <v>414</v>
+      </c>
+      <c r="B74" t="s">
         <v>415</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>416</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>417</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>418</v>
-      </c>
-      <c r="E74" t="s">
-        <v>419</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -7080,24 +7089,24 @@
         <v>42</v>
       </c>
       <c r="L74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
+        <v>420</v>
+      </c>
+      <c r="B75" t="s">
         <v>421</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>422</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>423</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>424</v>
-      </c>
-      <c r="E75" t="s">
-        <v>425</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -7123,19 +7132,19 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" t="s">
         <v>426</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>427</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>428</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>429</v>
-      </c>
-      <c r="E76" t="s">
-        <v>430</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -7161,19 +7170,19 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" t="s">
         <v>431</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>432</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>433</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>434</v>
-      </c>
-      <c r="E77" t="s">
-        <v>435</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -7199,37 +7208,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" t="s">
         <v>436</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>437</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>438</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>439</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
         <v>440</v>
-      </c>
-      <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" t="s">
-        <v>441</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -7237,19 +7246,19 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
+        <v>441</v>
+      </c>
+      <c r="B79" t="s">
         <v>442</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>443</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>444</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>445</v>
-      </c>
-      <c r="E79" t="s">
-        <v>446</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -7275,19 +7284,19 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s">
         <v>447</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>448</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>449</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>450</v>
-      </c>
-      <c r="E80" t="s">
-        <v>451</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -7313,19 +7322,19 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81" t="s">
         <v>452</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>453</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>454</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>455</v>
-      </c>
-      <c r="E81" t="s">
-        <v>456</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -7351,37 +7360,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
+        <v>456</v>
+      </c>
+      <c r="B82" t="s">
         <v>457</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>458</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>459</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>460</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
         <v>461</v>
-      </c>
-      <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" t="s">
-        <v>462</v>
       </c>
       <c r="L82" t="s">
         <v>169</v>
@@ -7389,19 +7398,19 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
+        <v>462</v>
+      </c>
+      <c r="B83" t="s">
         <v>463</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>464</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>465</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>466</v>
-      </c>
-      <c r="E83" t="s">
-        <v>467</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -7427,75 +7436,75 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
+        <v>467</v>
+      </c>
+      <c r="B84" t="s">
         <v>468</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>469</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>470</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>471</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>469</v>
+      </c>
+      <c r="L84" t="s">
         <v>472</v>
-      </c>
-      <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" t="s">
-        <v>470</v>
-      </c>
-      <c r="L84" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85" t="s">
         <v>474</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>475</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>476</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>477</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
         <v>478</v>
-      </c>
-      <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s">
-        <v>479</v>
       </c>
       <c r="L85" t="s">
         <v>72</v>
@@ -7503,37 +7512,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" t="s">
         <v>480</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>481</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>482</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>483</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
         <v>484</v>
-      </c>
-      <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" t="s">
-        <v>21</v>
-      </c>
-      <c r="K86" t="s">
-        <v>485</v>
       </c>
       <c r="L86" t="s">
         <v>60</v>
@@ -7541,37 +7550,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
+        <v>485</v>
+      </c>
+      <c r="B87" t="s">
         <v>486</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>487</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>488</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>489</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
         <v>490</v>
-      </c>
-      <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" t="s">
-        <v>21</v>
-      </c>
-      <c r="K87" t="s">
-        <v>491</v>
       </c>
       <c r="L87" t="s">
         <v>60</v>
@@ -7579,20 +7588,20 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
+        <v>491</v>
+      </c>
+      <c r="B88" t="s">
         <v>492</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>493</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>494</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>495</v>
       </c>
-      <c r="E88" t="s">
-        <v>496</v>
-      </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L88" t="s">
         <v>133</v>
@@ -7617,19 +7626,19 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89" t="s">
         <v>497</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>498</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>499</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>500</v>
-      </c>
-      <c r="E89" t="s">
-        <v>501</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -7655,19 +7664,19 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
+        <v>501</v>
+      </c>
+      <c r="B90" t="s">
         <v>502</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>503</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>504</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>505</v>
-      </c>
-      <c r="E90" t="s">
-        <v>506</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -7693,37 +7702,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
+        <v>506</v>
+      </c>
+      <c r="B91" t="s">
         <v>507</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>508</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91">
+        <v>7510431739</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
         <v>510</v>
-      </c>
-      <c r="E91" t="s">
-        <v>511</v>
-      </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" t="s">
-        <v>512</v>
       </c>
       <c r="L91" t="s">
         <v>133</v>
@@ -7731,19 +7740,19 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
+        <v>511</v>
+      </c>
+      <c r="B92" t="s">
+        <v>512</v>
+      </c>
+      <c r="C92" t="s">
         <v>513</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>514</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>515</v>
-      </c>
-      <c r="D92" t="s">
-        <v>516</v>
-      </c>
-      <c r="E92" t="s">
-        <v>517</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -7769,19 +7778,19 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
+        <v>516</v>
+      </c>
+      <c r="B93" t="s">
+        <v>517</v>
+      </c>
+      <c r="C93" t="s">
         <v>518</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>519</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>520</v>
-      </c>
-      <c r="D93" t="s">
-        <v>521</v>
-      </c>
-      <c r="E93" t="s">
-        <v>522</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -7807,19 +7816,19 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
+        <v>521</v>
+      </c>
+      <c r="B94" t="s">
+        <v>522</v>
+      </c>
+      <c r="C94" t="s">
         <v>523</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>524</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>525</v>
-      </c>
-      <c r="D94" t="s">
-        <v>526</v>
-      </c>
-      <c r="E94" t="s">
-        <v>527</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -7845,37 +7854,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
+        <v>526</v>
+      </c>
+      <c r="B95" t="s">
+        <v>527</v>
+      </c>
+      <c r="C95" t="s">
         <v>528</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>529</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>530</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
         <v>531</v>
-      </c>
-      <c r="E95" t="s">
-        <v>532</v>
-      </c>
-      <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
-      </c>
-      <c r="K95" t="s">
-        <v>533</v>
       </c>
       <c r="L95" t="s">
         <v>85</v>
@@ -7883,37 +7892,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
+        <v>532</v>
+      </c>
+      <c r="B96" t="s">
+        <v>533</v>
+      </c>
+      <c r="C96" t="s">
         <v>534</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>535</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>536</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
         <v>537</v>
-      </c>
-      <c r="E96" t="s">
-        <v>538</v>
-      </c>
-      <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
-      </c>
-      <c r="J96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" t="s">
-        <v>539</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
@@ -7921,19 +7930,19 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
+        <v>538</v>
+      </c>
+      <c r="B97" t="s">
+        <v>539</v>
+      </c>
+      <c r="C97" t="s">
         <v>540</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>541</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>542</v>
-      </c>
-      <c r="D97" t="s">
-        <v>543</v>
-      </c>
-      <c r="E97" t="s">
-        <v>544</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -7959,19 +7968,19 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
+        <v>543</v>
+      </c>
+      <c r="B98" t="s">
+        <v>544</v>
+      </c>
+      <c r="C98" t="s">
         <v>545</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>547</v>
-      </c>
-      <c r="D98" t="s">
-        <v>548</v>
-      </c>
-      <c r="E98" t="s">
-        <v>549</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -7992,24 +8001,24 @@
         <v>42</v>
       </c>
       <c r="L98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" t="s">
+        <v>549</v>
+      </c>
+      <c r="C99" t="s">
         <v>550</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>551</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>552</v>
-      </c>
-      <c r="D99" t="s">
-        <v>553</v>
-      </c>
-      <c r="E99" t="s">
-        <v>554</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -8030,24 +8039,24 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
+        <v>553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" t="s">
         <v>555</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>556</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
         <v>557</v>
-      </c>
-      <c r="D100" t="s">
-        <v>558</v>
-      </c>
-      <c r="E100" t="s">
-        <v>559</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -8068,24 +8077,24 @@
         <v>59</v>
       </c>
       <c r="L100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
+        <v>558</v>
+      </c>
+      <c r="B101" t="s">
+        <v>559</v>
+      </c>
+      <c r="C101" t="s">
         <v>560</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
         <v>561</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>562</v>
-      </c>
-      <c r="D101" t="s">
-        <v>563</v>
-      </c>
-      <c r="E101" t="s">
-        <v>564</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -8106,63 +8115,63 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
+        <v>565</v>
+      </c>
+      <c r="C102" t="s">
         <v>566</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>567</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>568</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
         <v>569</v>
       </c>
-      <c r="E102" t="s">
+      <c r="L102" t="s">
         <v>570</v>
-      </c>
-      <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" t="s">
-        <v>571</v>
-      </c>
-      <c r="L102" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
+        <v>571</v>
+      </c>
+      <c r="B103" t="s">
+        <v>572</v>
+      </c>
+      <c r="C103" t="s">
         <v>573</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>574</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>575</v>
       </c>
-      <c r="D103" t="s">
-        <v>576</v>
-      </c>
-      <c r="E103" t="s">
-        <v>577</v>
-      </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
@@ -8179,7 +8188,7 @@
         <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L103" t="s">
         <v>21</v>
@@ -8187,57 +8196,57 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
+        <v>576</v>
+      </c>
+      <c r="B104" t="s">
+        <v>577</v>
+      </c>
+      <c r="C104" t="s">
         <v>578</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>579</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>580</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s">
         <v>581</v>
       </c>
-      <c r="E104" t="s">
-        <v>582</v>
-      </c>
-      <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" t="s">
-        <v>21</v>
-      </c>
-      <c r="K104" t="s">
-        <v>583</v>
-      </c>
       <c r="L104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
+        <v>582</v>
+      </c>
+      <c r="B105" t="s">
+        <v>583</v>
+      </c>
+      <c r="C105" t="s">
         <v>584</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>585</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>586</v>
-      </c>
-      <c r="D105" t="s">
-        <v>587</v>
-      </c>
-      <c r="E105" t="s">
-        <v>588</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -8263,19 +8272,19 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
+        <v>587</v>
+      </c>
+      <c r="B106" t="s">
+        <v>588</v>
+      </c>
+      <c r="C106" t="s">
         <v>589</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>590</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" t="s">
         <v>591</v>
-      </c>
-      <c r="D106" t="s">
-        <v>592</v>
-      </c>
-      <c r="E106" t="s">
-        <v>593</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -8296,24 +8305,24 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
+        <v>592</v>
+      </c>
+      <c r="B107" t="s">
+        <v>593</v>
+      </c>
+      <c r="C107" t="s">
         <v>594</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>595</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>596</v>
-      </c>
-      <c r="D107" t="s">
-        <v>597</v>
-      </c>
-      <c r="E107" t="s">
-        <v>598</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -8334,24 +8343,24 @@
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
+        <v>597</v>
+      </c>
+      <c r="B108" t="s">
+        <v>598</v>
+      </c>
+      <c r="C108" t="s">
         <v>599</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
         <v>600</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>601</v>
-      </c>
-      <c r="D108" t="s">
-        <v>602</v>
-      </c>
-      <c r="E108" t="s">
-        <v>603</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
@@ -8377,19 +8386,19 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
+        <v>602</v>
+      </c>
+      <c r="B109" t="s">
+        <v>603</v>
+      </c>
+      <c r="C109" t="s">
         <v>604</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>605</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
         <v>606</v>
-      </c>
-      <c r="D109" t="s">
-        <v>607</v>
-      </c>
-      <c r="E109" t="s">
-        <v>608</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -8415,19 +8424,19 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
+        <v>607</v>
+      </c>
+      <c r="B110" t="s">
+        <v>608</v>
+      </c>
+      <c r="C110" t="s">
         <v>609</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>610</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>611</v>
-      </c>
-      <c r="D110" t="s">
-        <v>612</v>
-      </c>
-      <c r="E110" t="s">
-        <v>613</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -8453,19 +8462,19 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
+        <v>612</v>
+      </c>
+      <c r="B111" t="s">
+        <v>613</v>
+      </c>
+      <c r="C111" t="s">
         <v>614</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>615</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E111" t="s">
         <v>616</v>
-      </c>
-      <c r="D111" t="s">
-        <v>617</v>
-      </c>
-      <c r="E111" t="s">
-        <v>618</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -8491,19 +8500,19 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
+        <v>617</v>
+      </c>
+      <c r="B112" t="s">
+        <v>618</v>
+      </c>
+      <c r="C112" t="s">
         <v>619</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>620</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>621</v>
-      </c>
-      <c r="D112" t="s">
-        <v>622</v>
-      </c>
-      <c r="E112" t="s">
-        <v>623</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
@@ -8524,24 +8533,24 @@
         <v>59</v>
       </c>
       <c r="L112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
+        <v>622</v>
+      </c>
+      <c r="B113" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" t="s">
         <v>624</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>625</v>
       </c>
-      <c r="C113" t="s">
+      <c r="E113" t="s">
         <v>626</v>
-      </c>
-      <c r="D113" t="s">
-        <v>627</v>
-      </c>
-      <c r="E113" t="s">
-        <v>628</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -8567,58 +8576,58 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
+        <v>627</v>
+      </c>
+      <c r="B114" t="s">
+        <v>628</v>
+      </c>
+      <c r="C114" t="s">
         <v>629</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>630</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>631</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
         <v>632</v>
       </c>
-      <c r="E114" t="s">
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
         <v>633</v>
       </c>
-      <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="L114" t="s">
         <v>634</v>
-      </c>
-      <c r="J114" t="s">
-        <v>21</v>
-      </c>
-      <c r="K114" t="s">
-        <v>635</v>
-      </c>
-      <c r="L114" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B115" t="s">
+        <v>635</v>
+      </c>
+      <c r="C115" t="s">
+        <v>636</v>
+      </c>
+      <c r="D115" t="s">
         <v>637</v>
       </c>
-      <c r="C115" t="s">
+      <c r="E115" t="s">
         <v>638</v>
       </c>
-      <c r="D115" t="s">
-        <v>639</v>
-      </c>
-      <c r="E115" t="s">
-        <v>640</v>
-      </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
@@ -8629,33 +8638,33 @@
         <v>19</v>
       </c>
       <c r="I115" t="s">
+        <v>632</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>633</v>
+      </c>
+      <c r="L115" t="s">
         <v>634</v>
-      </c>
-      <c r="J115" t="s">
-        <v>21</v>
-      </c>
-      <c r="K115" t="s">
-        <v>635</v>
-      </c>
-      <c r="L115" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
+        <v>639</v>
+      </c>
+      <c r="B116" t="s">
+        <v>640</v>
+      </c>
+      <c r="C116" t="s">
         <v>641</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>642</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>643</v>
-      </c>
-      <c r="D116" t="s">
-        <v>644</v>
-      </c>
-      <c r="E116" t="s">
-        <v>645</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -8676,24 +8685,24 @@
         <v>59</v>
       </c>
       <c r="L116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
+        <v>644</v>
+      </c>
+      <c r="B117" t="s">
+        <v>645</v>
+      </c>
+      <c r="C117" t="s">
         <v>646</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>647</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
         <v>648</v>
-      </c>
-      <c r="D117" t="s">
-        <v>649</v>
-      </c>
-      <c r="E117" t="s">
-        <v>650</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -8719,19 +8728,19 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
+        <v>649</v>
+      </c>
+      <c r="B118" t="s">
+        <v>650</v>
+      </c>
+      <c r="C118" t="s">
         <v>651</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>652</v>
       </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>653</v>
-      </c>
-      <c r="D118" t="s">
-        <v>654</v>
-      </c>
-      <c r="E118" t="s">
-        <v>655</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -8752,25 +8761,25 @@
         <v>59</v>
       </c>
       <c r="L118" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
+        <v>655</v>
+      </c>
+      <c r="B119" t="s">
+        <v>656</v>
+      </c>
+      <c r="C119" t="s">
         <v>657</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>658</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>659</v>
       </c>
-      <c r="D119" t="s">
-        <v>660</v>
-      </c>
-      <c r="E119" t="s">
-        <v>661</v>
-      </c>
       <c r="F119" t="s">
         <v>17</v>
       </c>
@@ -8787,7 +8796,7 @@
         <v>21</v>
       </c>
       <c r="K119" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L119" t="s">
         <v>60</v>
@@ -8795,19 +8804,19 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
+        <v>660</v>
+      </c>
+      <c r="B120" t="s">
+        <v>661</v>
+      </c>
+      <c r="C120" t="s">
         <v>662</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>663</v>
       </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
         <v>664</v>
-      </c>
-      <c r="D120" t="s">
-        <v>665</v>
-      </c>
-      <c r="E120" t="s">
-        <v>666</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -8828,24 +8837,24 @@
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
+        <v>666</v>
+      </c>
+      <c r="B121" t="s">
+        <v>667</v>
+      </c>
+      <c r="C121" t="s">
         <v>668</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>669</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>670</v>
-      </c>
-      <c r="D121" t="s">
-        <v>671</v>
-      </c>
-      <c r="E121" t="s">
-        <v>672</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -8866,24 +8875,24 @@
         <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
+        <v>672</v>
+      </c>
+      <c r="B122" t="s">
+        <v>673</v>
+      </c>
+      <c r="C122" t="s">
         <v>674</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>675</v>
       </c>
-      <c r="C122" t="s">
+      <c r="E122" t="s">
         <v>676</v>
-      </c>
-      <c r="D122" t="s">
-        <v>677</v>
-      </c>
-      <c r="E122" t="s">
-        <v>678</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -8909,95 +8918,95 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
+        <v>677</v>
+      </c>
+      <c r="B123" t="s">
+        <v>678</v>
+      </c>
+      <c r="C123" t="s">
         <v>679</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>680</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>681</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123" t="s">
         <v>682</v>
-      </c>
-      <c r="E123" t="s">
-        <v>683</v>
-      </c>
-      <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s">
-        <v>19</v>
-      </c>
-      <c r="I123" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" t="s">
-        <v>21</v>
-      </c>
-      <c r="K123" t="s">
-        <v>21</v>
-      </c>
-      <c r="L123" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
+        <v>683</v>
+      </c>
+      <c r="B124" t="s">
+        <v>684</v>
+      </c>
+      <c r="C124" t="s">
         <v>685</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>686</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
         <v>687</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
         <v>688</v>
       </c>
-      <c r="E124" t="s">
-        <v>689</v>
-      </c>
-      <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" t="s">
-        <v>20</v>
-      </c>
-      <c r="J124" t="s">
-        <v>21</v>
-      </c>
-      <c r="K124" t="s">
-        <v>690</v>
-      </c>
       <c r="L124" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
+        <v>689</v>
+      </c>
+      <c r="B125" t="s">
+        <v>690</v>
+      </c>
+      <c r="C125" t="s">
         <v>691</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>692</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>693</v>
-      </c>
-      <c r="D125" t="s">
-        <v>694</v>
-      </c>
-      <c r="E125" t="s">
-        <v>695</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -9018,42 +9027,42 @@
         <v>22</v>
       </c>
       <c r="L125" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
+        <v>694</v>
+      </c>
+      <c r="B126" t="s">
+        <v>695</v>
+      </c>
+      <c r="C126" t="s">
         <v>696</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>697</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E126" t="s">
         <v>698</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
         <v>699</v>
-      </c>
-      <c r="E126" t="s">
-        <v>700</v>
-      </c>
-      <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" t="s">
-        <v>19</v>
-      </c>
-      <c r="I126" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" t="s">
-        <v>21</v>
-      </c>
-      <c r="K126" t="s">
-        <v>701</v>
       </c>
       <c r="L126" t="s">
         <v>21</v>
@@ -9061,37 +9070,37 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
+        <v>700</v>
+      </c>
+      <c r="B127" t="s">
+        <v>701</v>
+      </c>
+      <c r="C127" t="s">
         <v>702</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>703</v>
       </c>
-      <c r="C127" t="s">
+      <c r="E127" t="s">
         <v>704</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" t="s">
         <v>705</v>
-      </c>
-      <c r="E127" t="s">
-        <v>706</v>
-      </c>
-      <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>18</v>
-      </c>
-      <c r="H127" t="s">
-        <v>19</v>
-      </c>
-      <c r="I127" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" t="s">
-        <v>21</v>
-      </c>
-      <c r="K127" t="s">
-        <v>707</v>
       </c>
       <c r="L127" t="s">
         <v>21</v>
@@ -9099,19 +9108,19 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
+        <v>706</v>
+      </c>
+      <c r="B128" t="s">
+        <v>707</v>
+      </c>
+      <c r="C128" t="s">
         <v>708</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>709</v>
       </c>
-      <c r="C128" t="s">
+      <c r="E128" t="s">
         <v>710</v>
-      </c>
-      <c r="D128" t="s">
-        <v>711</v>
-      </c>
-      <c r="E128" t="s">
-        <v>712</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -9137,19 +9146,19 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
+        <v>711</v>
+      </c>
+      <c r="B129" t="s">
+        <v>712</v>
+      </c>
+      <c r="C129" t="s">
         <v>713</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>714</v>
       </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
         <v>715</v>
-      </c>
-      <c r="D129" t="s">
-        <v>716</v>
-      </c>
-      <c r="E129" t="s">
-        <v>717</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -9175,19 +9184,19 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
+        <v>716</v>
+      </c>
+      <c r="B130" t="s">
+        <v>717</v>
+      </c>
+      <c r="C130" t="s">
         <v>718</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>719</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
         <v>720</v>
-      </c>
-      <c r="D130" t="s">
-        <v>721</v>
-      </c>
-      <c r="E130" t="s">
-        <v>722</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
@@ -9213,19 +9222,19 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
+        <v>721</v>
+      </c>
+      <c r="B131" t="s">
+        <v>722</v>
+      </c>
+      <c r="C131" t="s">
         <v>723</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>724</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>725</v>
-      </c>
-      <c r="D131" t="s">
-        <v>726</v>
-      </c>
-      <c r="E131" t="s">
-        <v>727</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
@@ -9251,19 +9260,19 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
+        <v>726</v>
+      </c>
+      <c r="B132" t="s">
+        <v>727</v>
+      </c>
+      <c r="C132" t="s">
         <v>728</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>729</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" t="s">
         <v>730</v>
-      </c>
-      <c r="D132" t="s">
-        <v>731</v>
-      </c>
-      <c r="E132" t="s">
-        <v>732</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
@@ -9289,19 +9298,19 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
+        <v>731</v>
+      </c>
+      <c r="B133" t="s">
+        <v>732</v>
+      </c>
+      <c r="C133" t="s">
         <v>733</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>734</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>735</v>
-      </c>
-      <c r="D133" t="s">
-        <v>736</v>
-      </c>
-      <c r="E133" t="s">
-        <v>737</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
@@ -9327,37 +9336,37 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
+        <v>736</v>
+      </c>
+      <c r="B134" t="s">
+        <v>737</v>
+      </c>
+      <c r="C134" t="s">
         <v>738</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>739</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E134" t="s">
         <v>740</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
         <v>741</v>
-      </c>
-      <c r="E134" t="s">
-        <v>742</v>
-      </c>
-      <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" t="s">
-        <v>19</v>
-      </c>
-      <c r="I134" t="s">
-        <v>20</v>
-      </c>
-      <c r="J134" t="s">
-        <v>21</v>
-      </c>
-      <c r="K134" t="s">
-        <v>743</v>
       </c>
       <c r="L134" t="s">
         <v>21</v>
@@ -9365,19 +9374,19 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
+        <v>742</v>
+      </c>
+      <c r="B135" t="s">
+        <v>743</v>
+      </c>
+      <c r="C135" t="s">
         <v>744</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>745</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>746</v>
-      </c>
-      <c r="D135" t="s">
-        <v>747</v>
-      </c>
-      <c r="E135" t="s">
-        <v>748</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -9403,19 +9412,19 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
+        <v>747</v>
+      </c>
+      <c r="B136" t="s">
+        <v>748</v>
+      </c>
+      <c r="C136" t="s">
         <v>749</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>750</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>751</v>
-      </c>
-      <c r="D136" t="s">
-        <v>752</v>
-      </c>
-      <c r="E136" t="s">
-        <v>753</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -9441,19 +9450,19 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
+        <v>752</v>
+      </c>
+      <c r="B137" t="s">
+        <v>753</v>
+      </c>
+      <c r="C137" t="s">
         <v>754</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>755</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
         <v>756</v>
-      </c>
-      <c r="D137" t="s">
-        <v>757</v>
-      </c>
-      <c r="E137" t="s">
-        <v>758</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -9479,20 +9488,20 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
+        <v>757</v>
+      </c>
+      <c r="B138" t="s">
+        <v>758</v>
+      </c>
+      <c r="C138" t="s">
         <v>759</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>760</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E138" t="s">
         <v>761</v>
       </c>
-      <c r="D138" t="s">
-        <v>762</v>
-      </c>
-      <c r="E138" t="s">
-        <v>763</v>
-      </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
@@ -9509,7 +9518,7 @@
         <v>21</v>
       </c>
       <c r="K138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L138" t="s">
         <v>21</v>
@@ -9517,19 +9526,19 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
+        <v>762</v>
+      </c>
+      <c r="B139" t="s">
+        <v>763</v>
+      </c>
+      <c r="C139" t="s">
         <v>764</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>765</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>766</v>
-      </c>
-      <c r="D139" t="s">
-        <v>767</v>
-      </c>
-      <c r="E139" t="s">
-        <v>768</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -9555,19 +9564,19 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
+        <v>767</v>
+      </c>
+      <c r="B140" t="s">
+        <v>768</v>
+      </c>
+      <c r="C140" t="s">
         <v>769</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>770</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>771</v>
-      </c>
-      <c r="D140" t="s">
-        <v>772</v>
-      </c>
-      <c r="E140" t="s">
-        <v>773</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -9593,37 +9602,37 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
+        <v>772</v>
+      </c>
+      <c r="B141" t="s">
+        <v>773</v>
+      </c>
+      <c r="C141" t="s">
         <v>774</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>775</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>776</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
         <v>777</v>
-      </c>
-      <c r="E141" t="s">
-        <v>778</v>
-      </c>
-      <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" t="s">
-        <v>19</v>
-      </c>
-      <c r="I141" t="s">
-        <v>20</v>
-      </c>
-      <c r="J141" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" t="s">
-        <v>779</v>
       </c>
       <c r="L141" t="s">
         <v>21</v>
@@ -9631,20 +9640,20 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
+        <v>778</v>
+      </c>
+      <c r="B142" t="s">
+        <v>779</v>
+      </c>
+      <c r="C142" t="s">
         <v>780</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>781</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E142" t="s">
         <v>782</v>
       </c>
-      <c r="D142" t="s">
-        <v>783</v>
-      </c>
-      <c r="E142" t="s">
-        <v>784</v>
-      </c>
       <c r="F142" t="s">
         <v>17</v>
       </c>
@@ -9661,7 +9670,7 @@
         <v>21</v>
       </c>
       <c r="K142" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L142" t="s">
         <v>21</v>
@@ -9669,19 +9678,19 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
+        <v>783</v>
+      </c>
+      <c r="B143" t="s">
+        <v>784</v>
+      </c>
+      <c r="C143" t="s">
         <v>785</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>786</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>787</v>
-      </c>
-      <c r="D143" t="s">
-        <v>788</v>
-      </c>
-      <c r="E143" t="s">
-        <v>789</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -9707,19 +9716,19 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
+        <v>788</v>
+      </c>
+      <c r="B144" t="s">
+        <v>789</v>
+      </c>
+      <c r="C144" t="s">
         <v>790</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>791</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
         <v>792</v>
-      </c>
-      <c r="D144" t="s">
-        <v>793</v>
-      </c>
-      <c r="E144" t="s">
-        <v>794</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -9745,19 +9754,19 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
+        <v>793</v>
+      </c>
+      <c r="B145" t="s">
+        <v>794</v>
+      </c>
+      <c r="C145" t="s">
         <v>795</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>796</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>797</v>
-      </c>
-      <c r="D145" t="s">
-        <v>798</v>
-      </c>
-      <c r="E145" t="s">
-        <v>799</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
@@ -9783,19 +9792,19 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
+        <v>798</v>
+      </c>
+      <c r="B146" t="s">
+        <v>799</v>
+      </c>
+      <c r="C146" t="s">
         <v>800</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>801</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>802</v>
-      </c>
-      <c r="D146" t="s">
-        <v>803</v>
-      </c>
-      <c r="E146" t="s">
-        <v>804</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -9821,37 +9830,37 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
+        <v>803</v>
+      </c>
+      <c r="B147" t="s">
+        <v>804</v>
+      </c>
+      <c r="C147" t="s">
         <v>805</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>806</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>807</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" t="s">
         <v>808</v>
-      </c>
-      <c r="E147" t="s">
-        <v>809</v>
-      </c>
-      <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" t="s">
-        <v>20</v>
-      </c>
-      <c r="J147" t="s">
-        <v>21</v>
-      </c>
-      <c r="K147" t="s">
-        <v>810</v>
       </c>
       <c r="L147" t="s">
         <v>21</v>
@@ -9859,19 +9868,19 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
+        <v>809</v>
+      </c>
+      <c r="B148" t="s">
+        <v>810</v>
+      </c>
+      <c r="C148" t="s">
         <v>811</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>812</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>813</v>
-      </c>
-      <c r="D148" t="s">
-        <v>814</v>
-      </c>
-      <c r="E148" t="s">
-        <v>815</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -9897,19 +9906,19 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
+        <v>814</v>
+      </c>
+      <c r="B149" t="s">
+        <v>815</v>
+      </c>
+      <c r="C149" t="s">
         <v>816</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>817</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>818</v>
-      </c>
-      <c r="D149" t="s">
-        <v>819</v>
-      </c>
-      <c r="E149" t="s">
-        <v>820</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -9935,20 +9944,20 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
+        <v>819</v>
+      </c>
+      <c r="B150" t="s">
+        <v>820</v>
+      </c>
+      <c r="C150" t="s">
         <v>821</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>822</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>823</v>
       </c>
-      <c r="D150" t="s">
-        <v>824</v>
-      </c>
-      <c r="E150" t="s">
-        <v>825</v>
-      </c>
       <c r="F150" t="s">
         <v>17</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>21</v>
       </c>
       <c r="K150" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L150" t="s">
         <v>21</v>
@@ -9973,37 +9982,37 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
+        <v>824</v>
+      </c>
+      <c r="B151" t="s">
+        <v>825</v>
+      </c>
+      <c r="C151" t="s">
         <v>826</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>827</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>828</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" t="s">
         <v>829</v>
-      </c>
-      <c r="E151" t="s">
-        <v>830</v>
-      </c>
-      <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151" t="s">
-        <v>20</v>
-      </c>
-      <c r="J151" t="s">
-        <v>21</v>
-      </c>
-      <c r="K151" t="s">
-        <v>831</v>
       </c>
       <c r="L151" t="s">
         <v>21</v>
@@ -10011,37 +10020,37 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
+        <v>830</v>
+      </c>
+      <c r="B152" t="s">
+        <v>831</v>
+      </c>
+      <c r="C152" t="s">
         <v>832</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>833</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>834</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>20</v>
+      </c>
+      <c r="J152" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" t="s">
         <v>835</v>
-      </c>
-      <c r="E152" t="s">
-        <v>836</v>
-      </c>
-      <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" t="s">
-        <v>19</v>
-      </c>
-      <c r="I152" t="s">
-        <v>20</v>
-      </c>
-      <c r="J152" t="s">
-        <v>21</v>
-      </c>
-      <c r="K152" t="s">
-        <v>837</v>
       </c>
       <c r="L152" t="s">
         <v>21</v>
@@ -10049,19 +10058,19 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
+        <v>836</v>
+      </c>
+      <c r="B153" t="s">
+        <v>837</v>
+      </c>
+      <c r="C153" t="s">
         <v>838</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>839</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
         <v>840</v>
-      </c>
-      <c r="D153" t="s">
-        <v>841</v>
-      </c>
-      <c r="E153" t="s">
-        <v>842</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
@@ -10087,19 +10096,19 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
+        <v>841</v>
+      </c>
+      <c r="B154" t="s">
+        <v>842</v>
+      </c>
+      <c r="C154" t="s">
         <v>843</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>844</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="s">
         <v>845</v>
-      </c>
-      <c r="D154" t="s">
-        <v>846</v>
-      </c>
-      <c r="E154" t="s">
-        <v>847</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
@@ -10125,19 +10134,19 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
+        <v>846</v>
+      </c>
+      <c r="B155" t="s">
+        <v>847</v>
+      </c>
+      <c r="C155" t="s">
         <v>848</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>849</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>850</v>
-      </c>
-      <c r="D155" t="s">
-        <v>851</v>
-      </c>
-      <c r="E155" t="s">
-        <v>852</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -10163,19 +10172,19 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
+        <v>851</v>
+      </c>
+      <c r="B156" t="s">
+        <v>852</v>
+      </c>
+      <c r="C156" t="s">
         <v>853</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>854</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156" t="s">
         <v>855</v>
-      </c>
-      <c r="D156" t="s">
-        <v>856</v>
-      </c>
-      <c r="E156" t="s">
-        <v>857</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
@@ -10201,19 +10210,19 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
+        <v>856</v>
+      </c>
+      <c r="B157" t="s">
+        <v>857</v>
+      </c>
+      <c r="C157" t="s">
         <v>858</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>859</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>860</v>
-      </c>
-      <c r="D157" t="s">
-        <v>861</v>
-      </c>
-      <c r="E157" t="s">
-        <v>862</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
@@ -10234,24 +10243,24 @@
         <v>117</v>
       </c>
       <c r="L157" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
+        <v>861</v>
+      </c>
+      <c r="B158" t="s">
+        <v>862</v>
+      </c>
+      <c r="C158" t="s">
         <v>863</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>864</v>
       </c>
-      <c r="C158" t="s">
+      <c r="E158" t="s">
         <v>865</v>
-      </c>
-      <c r="D158" t="s">
-        <v>866</v>
-      </c>
-      <c r="E158" t="s">
-        <v>867</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -10277,19 +10286,19 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
+        <v>866</v>
+      </c>
+      <c r="B159" t="s">
+        <v>867</v>
+      </c>
+      <c r="C159" t="s">
         <v>868</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>869</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E159" t="s">
         <v>870</v>
-      </c>
-      <c r="D159" t="s">
-        <v>871</v>
-      </c>
-      <c r="E159" t="s">
-        <v>872</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -10315,19 +10324,19 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
+        <v>871</v>
+      </c>
+      <c r="B160" t="s">
+        <v>872</v>
+      </c>
+      <c r="C160" t="s">
         <v>873</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>874</v>
       </c>
-      <c r="C160" t="s">
+      <c r="E160" t="s">
         <v>875</v>
-      </c>
-      <c r="D160" t="s">
-        <v>876</v>
-      </c>
-      <c r="E160" t="s">
-        <v>877</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -10353,20 +10362,20 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
+        <v>876</v>
+      </c>
+      <c r="B161" t="s">
+        <v>877</v>
+      </c>
+      <c r="C161" t="s">
         <v>878</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>879</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E161" t="s">
         <v>880</v>
       </c>
-      <c r="D161" t="s">
-        <v>881</v>
-      </c>
-      <c r="E161" t="s">
-        <v>882</v>
-      </c>
       <c r="F161" t="s">
         <v>17</v>
       </c>
@@ -10383,7 +10392,7 @@
         <v>21</v>
       </c>
       <c r="K161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L161" t="s">
         <v>21</v>
@@ -10391,19 +10400,19 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
+        <v>881</v>
+      </c>
+      <c r="B162" t="s">
+        <v>882</v>
+      </c>
+      <c r="C162" t="s">
         <v>883</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>884</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E162" t="s">
         <v>885</v>
-      </c>
-      <c r="D162" t="s">
-        <v>886</v>
-      </c>
-      <c r="E162" t="s">
-        <v>887</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -10429,19 +10438,19 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
+        <v>886</v>
+      </c>
+      <c r="B163" t="s">
+        <v>887</v>
+      </c>
+      <c r="C163" t="s">
         <v>888</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D163" t="s">
         <v>889</v>
       </c>
-      <c r="C163" t="s">
+      <c r="E163" t="s">
         <v>890</v>
-      </c>
-      <c r="D163" t="s">
-        <v>891</v>
-      </c>
-      <c r="E163" t="s">
-        <v>892</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -10467,19 +10476,19 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
+        <v>891</v>
+      </c>
+      <c r="B164" t="s">
+        <v>892</v>
+      </c>
+      <c r="C164" t="s">
         <v>893</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>894</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" t="s">
         <v>895</v>
-      </c>
-      <c r="D164" t="s">
-        <v>896</v>
-      </c>
-      <c r="E164" t="s">
-        <v>897</v>
       </c>
       <c r="F164" t="s">
         <v>17</v>
@@ -10505,20 +10514,20 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
+        <v>896</v>
+      </c>
+      <c r="B165" t="s">
+        <v>897</v>
+      </c>
+      <c r="C165" t="s">
         <v>898</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>899</v>
       </c>
-      <c r="C165" t="s">
+      <c r="E165" t="s">
         <v>900</v>
       </c>
-      <c r="D165" t="s">
-        <v>901</v>
-      </c>
-      <c r="E165" t="s">
-        <v>902</v>
-      </c>
       <c r="F165" t="s">
         <v>17</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L165" t="s">
         <v>21</v>
@@ -10543,37 +10552,37 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
+        <v>901</v>
+      </c>
+      <c r="B166" t="s">
+        <v>902</v>
+      </c>
+      <c r="C166" t="s">
         <v>903</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>904</v>
       </c>
-      <c r="C166" t="s">
+      <c r="E166" t="s">
         <v>905</v>
       </c>
-      <c r="D166" t="s">
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s">
+        <v>20</v>
+      </c>
+      <c r="J166" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" t="s">
         <v>906</v>
-      </c>
-      <c r="E166" t="s">
-        <v>907</v>
-      </c>
-      <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" t="s">
-        <v>19</v>
-      </c>
-      <c r="I166" t="s">
-        <v>20</v>
-      </c>
-      <c r="J166" t="s">
-        <v>21</v>
-      </c>
-      <c r="K166" t="s">
-        <v>908</v>
       </c>
       <c r="L166" t="s">
         <v>21</v>
@@ -10581,19 +10590,19 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
+        <v>907</v>
+      </c>
+      <c r="B167" t="s">
+        <v>908</v>
+      </c>
+      <c r="C167" t="s">
         <v>909</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>910</v>
       </c>
-      <c r="C167" t="s">
+      <c r="E167" t="s">
         <v>911</v>
-      </c>
-      <c r="D167" t="s">
-        <v>912</v>
-      </c>
-      <c r="E167" t="s">
-        <v>913</v>
       </c>
       <c r="F167" t="s">
         <v>17</v>
@@ -10619,19 +10628,19 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
+        <v>912</v>
+      </c>
+      <c r="B168" t="s">
+        <v>913</v>
+      </c>
+      <c r="C168" t="s">
         <v>914</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>915</v>
       </c>
-      <c r="C168" t="s">
+      <c r="E168" t="s">
         <v>916</v>
-      </c>
-      <c r="D168" t="s">
-        <v>917</v>
-      </c>
-      <c r="E168" t="s">
-        <v>918</v>
       </c>
       <c r="F168" t="s">
         <v>17</v>
@@ -10657,20 +10666,20 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
+        <v>917</v>
+      </c>
+      <c r="B169" t="s">
+        <v>918</v>
+      </c>
+      <c r="C169" t="s">
         <v>919</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
         <v>920</v>
       </c>
-      <c r="C169" t="s">
+      <c r="E169" t="s">
         <v>921</v>
       </c>
-      <c r="D169" t="s">
-        <v>922</v>
-      </c>
-      <c r="E169" t="s">
-        <v>923</v>
-      </c>
       <c r="F169" t="s">
         <v>17</v>
       </c>
@@ -10687,7 +10696,7 @@
         <v>21</v>
       </c>
       <c r="K169" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L169" t="s">
         <v>21</v>
@@ -10695,37 +10704,37 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
+        <v>922</v>
+      </c>
+      <c r="B170" t="s">
+        <v>923</v>
+      </c>
+      <c r="C170" t="s">
         <v>924</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>925</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E170" t="s">
         <v>926</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s">
+        <v>20</v>
+      </c>
+      <c r="J170" t="s">
+        <v>21</v>
+      </c>
+      <c r="K170" t="s">
         <v>927</v>
-      </c>
-      <c r="E170" t="s">
-        <v>928</v>
-      </c>
-      <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" t="s">
-        <v>19</v>
-      </c>
-      <c r="I170" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" t="s">
-        <v>21</v>
-      </c>
-      <c r="K170" t="s">
-        <v>929</v>
       </c>
       <c r="L170" t="s">
         <v>21</v>
@@ -10733,19 +10742,19 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
+        <v>928</v>
+      </c>
+      <c r="B171" t="s">
+        <v>929</v>
+      </c>
+      <c r="C171" t="s">
         <v>930</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>931</v>
       </c>
-      <c r="C171" t="s">
+      <c r="E171" t="s">
         <v>932</v>
-      </c>
-      <c r="D171" t="s">
-        <v>933</v>
-      </c>
-      <c r="E171" t="s">
-        <v>934</v>
       </c>
       <c r="F171" t="s">
         <v>17</v>
@@ -10771,37 +10780,37 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
+        <v>933</v>
+      </c>
+      <c r="B172" t="s">
+        <v>934</v>
+      </c>
+      <c r="C172" t="s">
         <v>935</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>936</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" t="s">
         <v>937</v>
       </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>20</v>
+      </c>
+      <c r="J172" t="s">
+        <v>21</v>
+      </c>
+      <c r="K172" t="s">
         <v>938</v>
-      </c>
-      <c r="E172" t="s">
-        <v>939</v>
-      </c>
-      <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>18</v>
-      </c>
-      <c r="H172" t="s">
-        <v>19</v>
-      </c>
-      <c r="I172" t="s">
-        <v>20</v>
-      </c>
-      <c r="J172" t="s">
-        <v>21</v>
-      </c>
-      <c r="K172" t="s">
-        <v>940</v>
       </c>
       <c r="L172" t="s">
         <v>21</v>
@@ -10809,20 +10818,20 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
+        <v>939</v>
+      </c>
+      <c r="B173" t="s">
+        <v>940</v>
+      </c>
+      <c r="C173" t="s">
         <v>941</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>942</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E173" t="s">
         <v>943</v>
       </c>
-      <c r="D173" t="s">
-        <v>944</v>
-      </c>
-      <c r="E173" t="s">
-        <v>945</v>
-      </c>
       <c r="F173" t="s">
         <v>17</v>
       </c>
@@ -10839,7 +10848,7 @@
         <v>21</v>
       </c>
       <c r="K173" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L173" t="s">
         <v>21</v>
@@ -10847,37 +10856,37 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
+        <v>944</v>
+      </c>
+      <c r="B174" t="s">
+        <v>945</v>
+      </c>
+      <c r="C174" t="s">
         <v>946</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>947</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" t="s">
         <v>948</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
         <v>949</v>
-      </c>
-      <c r="E174" t="s">
-        <v>950</v>
-      </c>
-      <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
-      <c r="H174" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174" t="s">
-        <v>20</v>
-      </c>
-      <c r="J174" t="s">
-        <v>21</v>
-      </c>
-      <c r="K174" t="s">
-        <v>951</v>
       </c>
       <c r="L174" t="s">
         <v>21</v>
@@ -10885,37 +10894,37 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
+        <v>950</v>
+      </c>
+      <c r="B175" t="s">
+        <v>951</v>
+      </c>
+      <c r="C175" t="s">
         <v>952</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>953</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
         <v>954</v>
       </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" t="s">
+        <v>21</v>
+      </c>
+      <c r="K175" t="s">
         <v>955</v>
-      </c>
-      <c r="E175" t="s">
-        <v>956</v>
-      </c>
-      <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
-      <c r="H175" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" t="s">
-        <v>20</v>
-      </c>
-      <c r="J175" t="s">
-        <v>21</v>
-      </c>
-      <c r="K175" t="s">
-        <v>957</v>
       </c>
       <c r="L175" t="s">
         <v>21</v>
@@ -10923,19 +10932,19 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
+        <v>956</v>
+      </c>
+      <c r="B176" t="s">
+        <v>957</v>
+      </c>
+      <c r="C176" t="s">
         <v>958</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>959</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>960</v>
-      </c>
-      <c r="D176" t="s">
-        <v>961</v>
-      </c>
-      <c r="E176" t="s">
-        <v>962</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -10961,19 +10970,19 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
+        <v>961</v>
+      </c>
+      <c r="B177" t="s">
+        <v>962</v>
+      </c>
+      <c r="C177" t="s">
         <v>963</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>964</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" t="s">
         <v>965</v>
-      </c>
-      <c r="D177" t="s">
-        <v>966</v>
-      </c>
-      <c r="E177" t="s">
-        <v>967</v>
       </c>
       <c r="F177" t="s">
         <v>17</v>
@@ -10999,19 +11008,19 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
+        <v>966</v>
+      </c>
+      <c r="B178" t="s">
+        <v>967</v>
+      </c>
+      <c r="C178" t="s">
         <v>968</v>
       </c>
-      <c r="B178" t="s">
+      <c r="D178" t="s">
         <v>969</v>
       </c>
-      <c r="C178" t="s">
+      <c r="E178" t="s">
         <v>970</v>
-      </c>
-      <c r="D178" t="s">
-        <v>971</v>
-      </c>
-      <c r="E178" t="s">
-        <v>972</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -11037,19 +11046,19 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
+        <v>971</v>
+      </c>
+      <c r="B179" t="s">
+        <v>972</v>
+      </c>
+      <c r="C179" t="s">
         <v>973</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>974</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" t="s">
         <v>975</v>
-      </c>
-      <c r="D179" t="s">
-        <v>976</v>
-      </c>
-      <c r="E179" t="s">
-        <v>977</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
@@ -11075,19 +11084,19 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
+        <v>976</v>
+      </c>
+      <c r="B180" t="s">
+        <v>977</v>
+      </c>
+      <c r="C180" t="s">
         <v>978</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" t="s">
         <v>979</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" t="s">
         <v>980</v>
-      </c>
-      <c r="D180" t="s">
-        <v>981</v>
-      </c>
-      <c r="E180" t="s">
-        <v>982</v>
       </c>
       <c r="F180" t="s">
         <v>17</v>
@@ -11113,57 +11122,57 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
+        <v>981</v>
+      </c>
+      <c r="B181" t="s">
+        <v>982</v>
+      </c>
+      <c r="C181" t="s">
         <v>983</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D181" t="s">
         <v>984</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>985</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" t="s">
+        <v>21</v>
+      </c>
+      <c r="K181" t="s">
         <v>986</v>
       </c>
-      <c r="E181" t="s">
-        <v>987</v>
-      </c>
-      <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s">
-        <v>19</v>
-      </c>
-      <c r="I181" t="s">
-        <v>20</v>
-      </c>
-      <c r="J181" t="s">
-        <v>21</v>
-      </c>
-      <c r="K181" t="s">
-        <v>988</v>
-      </c>
       <c r="L181" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
+        <v>987</v>
+      </c>
+      <c r="B182" t="s">
+        <v>988</v>
+      </c>
+      <c r="C182" t="s">
         <v>989</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>990</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E182" t="s">
         <v>991</v>
-      </c>
-      <c r="D182" t="s">
-        <v>992</v>
-      </c>
-      <c r="E182" t="s">
-        <v>993</v>
       </c>
       <c r="F182" t="s">
         <v>17</v>
@@ -11189,19 +11198,19 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
+        <v>992</v>
+      </c>
+      <c r="B183" t="s">
+        <v>993</v>
+      </c>
+      <c r="C183" t="s">
         <v>994</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" t="s">
         <v>995</v>
       </c>
-      <c r="C183" t="s">
+      <c r="E183" t="s">
         <v>996</v>
-      </c>
-      <c r="D183" t="s">
-        <v>997</v>
-      </c>
-      <c r="E183" t="s">
-        <v>998</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
@@ -11227,16 +11236,16 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
+        <v>997</v>
+      </c>
+      <c r="B184" t="s">
+        <v>998</v>
+      </c>
+      <c r="C184" t="s">
         <v>999</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>1000</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1002</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
@@ -11265,19 +11274,19 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C185" t="s">
         <v>1003</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>1004</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" t="s">
         <v>1005</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1007</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
@@ -11303,20 +11312,20 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C186" t="s">
         <v>1008</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>1009</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" t="s">
         <v>1010</v>
       </c>
-      <c r="D186" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1012</v>
-      </c>
       <c r="F186" t="s">
         <v>17</v>
       </c>
@@ -11333,7 +11342,7 @@
         <v>21</v>
       </c>
       <c r="K186" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L186" t="s">
         <v>21</v>
@@ -11341,37 +11350,37 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C187" t="s">
         <v>1013</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D187" t="s">
         <v>1014</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>1015</v>
       </c>
-      <c r="D187" t="s">
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" t="s">
+        <v>20</v>
+      </c>
+      <c r="J187" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" t="s">
         <v>1016</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" t="s">
-        <v>19</v>
-      </c>
-      <c r="I187" t="s">
-        <v>20</v>
-      </c>
-      <c r="J187" t="s">
-        <v>21</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1018</v>
       </c>
       <c r="L187" t="s">
         <v>21</v>
@@ -11379,58 +11388,58 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C188" t="s">
         <v>1019</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" t="s">
         <v>1020</v>
       </c>
-      <c r="C188" t="s">
+      <c r="E188" t="s">
         <v>1021</v>
       </c>
-      <c r="D188" t="s">
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" t="s">
+        <v>20</v>
+      </c>
+      <c r="J188" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" t="s">
         <v>1022</v>
       </c>
-      <c r="E188" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" t="s">
-        <v>19</v>
-      </c>
-      <c r="I188" t="s">
-        <v>20</v>
-      </c>
-      <c r="J188" t="s">
-        <v>21</v>
-      </c>
-      <c r="K188" t="s">
-        <v>1024</v>
-      </c>
       <c r="L188" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C189" t="s">
         <v>1025</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>1026</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>1027</v>
       </c>
-      <c r="D189" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1029</v>
-      </c>
       <c r="F189" t="s">
         <v>17</v>
       </c>
@@ -11447,7 +11456,7 @@
         <v>21</v>
       </c>
       <c r="K189" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="L189" t="s">
         <v>21</v>
@@ -11455,20 +11464,20 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C190" t="s">
         <v>1030</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>1031</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>1032</v>
       </c>
-      <c r="D190" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1034</v>
-      </c>
       <c r="F190" t="s">
         <v>17</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>21</v>
       </c>
       <c r="K190" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L190" t="s">
         <v>21</v>
@@ -11493,37 +11502,37 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C191" t="s">
         <v>1035</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" t="s">
         <v>1036</v>
       </c>
-      <c r="C191" t="s">
+      <c r="E191" t="s">
         <v>1037</v>
       </c>
-      <c r="D191" t="s">
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" t="s">
         <v>1038</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>18</v>
-      </c>
-      <c r="H191" t="s">
-        <v>19</v>
-      </c>
-      <c r="I191" t="s">
-        <v>20</v>
-      </c>
-      <c r="J191" t="s">
-        <v>21</v>
-      </c>
-      <c r="K191" t="s">
-        <v>1040</v>
       </c>
       <c r="L191" t="s">
         <v>21</v>
@@ -11531,19 +11540,19 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C192" t="s">
         <v>1041</v>
       </c>
-      <c r="B192" t="s">
+      <c r="D192" t="s">
         <v>1042</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>1043</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1045</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -11569,19 +11578,19 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C193" t="s">
         <v>1046</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>1047</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>1048</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1050</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -11607,19 +11616,19 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C194" t="s">
         <v>1051</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>1052</v>
       </c>
-      <c r="C194" t="s">
+      <c r="E194" t="s">
         <v>1053</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1055</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -11645,37 +11654,37 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C195" t="s">
         <v>1056</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D195" t="s">
         <v>1057</v>
       </c>
-      <c r="C195" t="s">
+      <c r="E195" t="s">
         <v>1058</v>
       </c>
-      <c r="D195" t="s">
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" t="s">
+        <v>632</v>
+      </c>
+      <c r="J195" t="s">
+        <v>21</v>
+      </c>
+      <c r="K195" t="s">
         <v>1059</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F195" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" t="s">
-        <v>18</v>
-      </c>
-      <c r="H195" t="s">
-        <v>19</v>
-      </c>
-      <c r="I195" t="s">
-        <v>634</v>
-      </c>
-      <c r="J195" t="s">
-        <v>21</v>
-      </c>
-      <c r="K195" t="s">
-        <v>1061</v>
       </c>
       <c r="L195" t="s">
         <v>21</v>
@@ -11683,20 +11692,20 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B196" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D196" t="s">
         <v>1062</v>
       </c>
-      <c r="C196" t="s">
+      <c r="E196" t="s">
         <v>1063</v>
       </c>
-      <c r="D196" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1065</v>
-      </c>
       <c r="F196" t="s">
         <v>17</v>
       </c>
@@ -11707,13 +11716,13 @@
         <v>19</v>
       </c>
       <c r="I196" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J196" t="s">
         <v>21</v>
       </c>
       <c r="K196" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="L196" t="s">
         <v>21</v>
@@ -11721,19 +11730,19 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C197" t="s">
         <v>1066</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" t="s">
         <v>1067</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
         <v>1068</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1070</v>
       </c>
       <c r="F197" t="s">
         <v>17</v>
@@ -11759,37 +11768,37 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C198" t="s">
         <v>1071</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" t="s">
         <v>1072</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" t="s">
         <v>1073</v>
       </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" t="s">
+        <v>20</v>
+      </c>
+      <c r="J198" t="s">
+        <v>21</v>
+      </c>
+      <c r="K198" t="s">
         <v>1074</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
-      <c r="H198" t="s">
-        <v>19</v>
-      </c>
-      <c r="I198" t="s">
-        <v>20</v>
-      </c>
-      <c r="J198" t="s">
-        <v>21</v>
-      </c>
-      <c r="K198" t="s">
-        <v>1076</v>
       </c>
       <c r="L198" t="s">
         <v>21</v>
@@ -11797,20 +11806,20 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C199" t="s">
         <v>1077</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>1078</v>
       </c>
-      <c r="C199" t="s">
+      <c r="E199" t="s">
         <v>1079</v>
       </c>
-      <c r="D199" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1081</v>
-      </c>
       <c r="F199" t="s">
         <v>17</v>
       </c>
@@ -11827,7 +11836,7 @@
         <v>21</v>
       </c>
       <c r="K199" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L199" t="s">
         <v>21</v>
@@ -11835,37 +11844,37 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C200" t="s">
         <v>1082</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D200" t="s">
         <v>1083</v>
       </c>
-      <c r="C200" t="s">
+      <c r="E200" t="s">
         <v>1084</v>
       </c>
-      <c r="D200" t="s">
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" t="s">
+        <v>21</v>
+      </c>
+      <c r="K200" t="s">
         <v>1085</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
-      <c r="H200" t="s">
-        <v>19</v>
-      </c>
-      <c r="I200" t="s">
-        <v>20</v>
-      </c>
-      <c r="J200" t="s">
-        <v>21</v>
-      </c>
-      <c r="K200" t="s">
-        <v>1087</v>
       </c>
       <c r="L200" t="s">
         <v>21</v>
@@ -11873,20 +11882,20 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C201" t="s">
         <v>1088</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>1089</v>
       </c>
-      <c r="C201" t="s">
+      <c r="E201" t="s">
         <v>1090</v>
       </c>
-      <c r="D201" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1092</v>
-      </c>
       <c r="F201" t="s">
         <v>17</v>
       </c>
@@ -11903,21 +11912,21 @@
         <v>21</v>
       </c>
       <c r="K201" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="L201" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>1093</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -11926,6 +11935,10 @@
     <hyperlink ref="D5" r:id="rId2" display="sharonag2000@gmail.com"/>
     <hyperlink ref="D24" r:id="rId3" display="u2007044@rajagiri.edu.in"/>
     <hyperlink ref="D6" r:id="rId4" display="u1803136@rajagiri.edu.in"/>
+    <hyperlink ref="D4" r:id="rId5" display="shaswathnarayanrpai@gmail.com"/>
+    <hyperlink ref="D98" r:id="rId6" display="jeromedenny2017@gmail.com"/>
+    <hyperlink ref="D91" r:id="rId7" display="u3003098@rajagiri.edu.in"/>
+    <hyperlink ref="D42" r:id="rId8" display="u200507@rajagiri.edu.in" tooltip="mailto:u200507@rajagiri.edu.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/event-attendee-list.xlsx
+++ b/event-attendee-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1097">
   <si>
     <t>BOOKING ID</t>
   </si>
@@ -2272,6 +2272,12 @@
     <t>9061766010</t>
   </si>
   <si>
+    <t>3k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1csG</t>
+  </si>
+  <si>
     <t>XJWQ0SQL</t>
   </si>
   <si>
@@ -2567,6 +2573,9 @@
   </si>
   <si>
     <t>9188781484</t>
+  </si>
+  <si>
+    <t>1.5k</t>
   </si>
   <si>
     <t>HZWY7M4P</t>
@@ -3303,10 +3312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -3346,6 +3355,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3353,23 +3370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3382,21 +3384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -3404,10 +3391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3460,7 +3448,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3472,16 +3489,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3490,7 +3499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3502,13 +3541,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3520,61 +3643,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3586,91 +3697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3684,46 +3717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3767,17 +3771,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3786,153 +3819,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3940,6 +3976,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1">
@@ -4264,10 +4315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4275,46 +4326,47 @@
     <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="29.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="36.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778"/>
+    <col min="4" max="4" width="26.9259259259259" customWidth="1"/>
+    <col min="5" max="5" width="22.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="30.5555555555556" customWidth="1"/>
     <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4404,7 +4456,7 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -4442,7 +4494,7 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
@@ -4480,7 +4532,7 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E6" t="s">
@@ -5164,7 +5216,7 @@
       <c r="C24" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E24" t="s">
@@ -5845,10 +5897,10 @@
       <c r="B42" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E42">
@@ -7710,7 +7762,7 @@
       <c r="C91" t="s">
         <v>508</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>509</v>
       </c>
       <c r="E91">
@@ -7976,7 +8028,7 @@
       <c r="C98" t="s">
         <v>545</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>546</v>
       </c>
       <c r="E98" t="s">
@@ -9410,59 +9462,69 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="A136" t="s">
+    <row r="136" s="1" customFormat="1" ht="63" customHeight="1" spans="1:17">
+      <c r="A136" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
-      <c r="H136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I136" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="F136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="L136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="P136" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q136" s="8"/>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B137" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C137" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D137" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E137" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -9485,22 +9547,25 @@
       <c r="L137" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B138" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C138" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D138" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E138" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -9523,22 +9588,25 @@
       <c r="L138" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B139" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C139" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D139" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E139" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -9561,22 +9629,25 @@
       <c r="L139" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B140" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C140" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D140" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E140" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -9599,22 +9670,25 @@
       <c r="L140" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B141" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C141" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D141" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E141" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -9632,27 +9706,30 @@
         <v>21</v>
       </c>
       <c r="K141" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="L141" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B142" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C142" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D142" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E142" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -9675,98 +9752,117 @@
       <c r="L142" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" t="s">
-        <v>783</v>
-      </c>
-      <c r="B143" t="s">
-        <v>784</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:17">
+      <c r="A143" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D143" t="s">
+      <c r="B143" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E143" t="s">
+      <c r="C143" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H143" t="s">
-        <v>19</v>
-      </c>
-      <c r="I143" t="s">
-        <v>20</v>
-      </c>
-      <c r="J143" t="s">
-        <v>21</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="D143" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K143" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L143" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
-        <v>788</v>
-      </c>
-      <c r="B144" t="s">
-        <v>789</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="L143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="1">
+        <v>4</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q143" s="8"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:17">
+      <c r="A144" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D144" t="s">
+      <c r="B144" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E144" t="s">
+      <c r="C144" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>18</v>
-      </c>
-      <c r="H144" t="s">
-        <v>19</v>
-      </c>
-      <c r="I144" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" t="s">
-        <v>21</v>
-      </c>
-      <c r="K144" t="s">
+      <c r="D144" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L144" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="L144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="1">
+        <v>3</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="8"/>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B145" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C145" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D145" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E145" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
@@ -9789,22 +9885,25 @@
       <c r="L145" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B146" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C146" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D146" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E146" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -9827,22 +9926,25 @@
       <c r="L146" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B147" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C147" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D147" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E147" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -9860,27 +9962,30 @@
         <v>21</v>
       </c>
       <c r="K147" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L147" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B148" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C148" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D148" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E148" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -9903,22 +10008,25 @@
       <c r="L148" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B149" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C149" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D149" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E149" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -9941,22 +10049,25 @@
       <c r="L149" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B150" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C150" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D150" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E150" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
@@ -9979,22 +10090,25 @@
       <c r="L150" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B151" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C151" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D151" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E151" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -10012,27 +10126,30 @@
         <v>21</v>
       </c>
       <c r="K151" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L151" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B152" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C152" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D152" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E152" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -10050,27 +10167,30 @@
         <v>21</v>
       </c>
       <c r="K152" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L152" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+    </row>
+    <row r="153" ht="10" customHeight="1" spans="1:17">
       <c r="A153" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B153" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C153" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D153" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E153" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
@@ -10093,22 +10213,25 @@
       <c r="L153" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+    </row>
+    <row r="154" hidden="1" spans="1:17">
       <c r="A154" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B154" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C154" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D154" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E154" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
@@ -10131,60 +10254,71 @@
       <c r="L154" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" t="s">
-        <v>846</v>
-      </c>
-      <c r="B155" t="s">
-        <v>847</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="30" customHeight="1" spans="1:17">
+      <c r="A155" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B155" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="E155" t="s">
+      <c r="C155" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" t="s">
-        <v>19</v>
-      </c>
-      <c r="I155" t="s">
-        <v>20</v>
-      </c>
-      <c r="J155" t="s">
-        <v>21</v>
-      </c>
-      <c r="K155" t="s">
+      <c r="D155" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L155" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="L155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="1">
+        <v>2</v>
+      </c>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q155" s="8"/>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B156" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C156" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D156" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E156" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
@@ -10207,22 +10341,25 @@
       <c r="L156" t="s">
         <v>21</v>
       </c>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B157" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C157" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D157" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E157" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
@@ -10248,19 +10385,19 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B158" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C158" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D158" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E158" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -10286,19 +10423,19 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B159" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C159" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="D159" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E159" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="F159" t="s">
         <v>17</v>
@@ -10324,19 +10461,19 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B160" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C160" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="D160" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E160" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -10362,19 +10499,19 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B161" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C161" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D161" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E161" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F161" t="s">
         <v>17</v>
@@ -10400,19 +10537,19 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B162" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C162" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D162" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E162" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -10438,19 +10575,19 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B163" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C163" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D163" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E163" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -10476,19 +10613,19 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B164" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C164" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D164" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E164" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F164" t="s">
         <v>17</v>
@@ -10514,19 +10651,19 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B165" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C165" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D165" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E165" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -10552,19 +10689,19 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B166" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C166" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D166" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E166" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="F166" t="s">
         <v>17</v>
@@ -10582,7 +10719,7 @@
         <v>21</v>
       </c>
       <c r="K166" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="L166" t="s">
         <v>21</v>
@@ -10590,19 +10727,19 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B167" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C167" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D167" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E167" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F167" t="s">
         <v>17</v>
@@ -10628,19 +10765,19 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B168" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C168" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D168" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E168" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F168" t="s">
         <v>17</v>
@@ -10666,19 +10803,19 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B169" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C169" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D169" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E169" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F169" t="s">
         <v>17</v>
@@ -10703,38 +10840,38 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" t="s">
-        <v>922</v>
-      </c>
-      <c r="B170" t="s">
-        <v>923</v>
-      </c>
-      <c r="C170" t="s">
-        <v>924</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="A170" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="E170" t="s">
+      <c r="B170" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" t="s">
-        <v>19</v>
-      </c>
-      <c r="I170" t="s">
-        <v>20</v>
-      </c>
-      <c r="J170" t="s">
-        <v>21</v>
-      </c>
-      <c r="K170" t="s">
+      <c r="C170" s="7" t="s">
         <v>927</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J170" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>930</v>
       </c>
       <c r="L170" t="s">
         <v>21</v>
@@ -10742,19 +10879,19 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B171" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C171" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D171" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E171" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="F171" t="s">
         <v>17</v>
@@ -10780,19 +10917,19 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B172" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C172" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D172" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E172" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
@@ -10810,7 +10947,7 @@
         <v>21</v>
       </c>
       <c r="K172" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="L172" t="s">
         <v>21</v>
@@ -10818,19 +10955,19 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B173" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C173" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D173" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E173" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="F173" t="s">
         <v>17</v>
@@ -10848,7 +10985,7 @@
         <v>21</v>
       </c>
       <c r="K173" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="L173" t="s">
         <v>21</v>
@@ -10856,19 +10993,19 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B174" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C174" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D174" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E174" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F174" t="s">
         <v>17</v>
@@ -10886,7 +11023,7 @@
         <v>21</v>
       </c>
       <c r="K174" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="L174" t="s">
         <v>21</v>
@@ -10894,19 +11031,19 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B175" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C175" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="D175" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E175" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
@@ -10924,7 +11061,7 @@
         <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="L175" t="s">
         <v>21</v>
@@ -10932,19 +11069,19 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B176" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C176" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D176" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E176" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -10970,19 +11107,19 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B177" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C177" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D177" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E177" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F177" t="s">
         <v>17</v>
@@ -11008,19 +11145,19 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B178" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C178" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D178" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E178" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -11046,19 +11183,19 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B179" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C179" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D179" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E179" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
@@ -11084,19 +11221,19 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B180" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C180" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D180" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E180" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F180" t="s">
         <v>17</v>
@@ -11122,19 +11259,19 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B181" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C181" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D181" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E181" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F181" t="s">
         <v>17</v>
@@ -11152,7 +11289,7 @@
         <v>21</v>
       </c>
       <c r="K181" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="L181" t="s">
         <v>634</v>
@@ -11160,19 +11297,19 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B182" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C182" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D182" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E182" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F182" t="s">
         <v>17</v>
@@ -11198,19 +11335,19 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B183" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C183" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D183" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E183" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
@@ -11236,16 +11373,16 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B184" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C184" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D184" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
@@ -11274,19 +11411,19 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B185" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C185" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D185" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E185" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
@@ -11312,19 +11449,19 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B186" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C186" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D186" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E186" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F186" t="s">
         <v>17</v>
@@ -11350,19 +11487,19 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B187" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C187" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D187" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E187" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F187" t="s">
         <v>17</v>
@@ -11380,7 +11517,7 @@
         <v>21</v>
       </c>
       <c r="K187" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="L187" t="s">
         <v>21</v>
@@ -11388,19 +11525,19 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B188" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C188" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D188" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E188" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F188" t="s">
         <v>17</v>
@@ -11418,7 +11555,7 @@
         <v>21</v>
       </c>
       <c r="K188" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="L188" t="s">
         <v>671</v>
@@ -11426,19 +11563,19 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B189" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C189" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D189" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E189" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="F189" t="s">
         <v>17</v>
@@ -11456,7 +11593,7 @@
         <v>21</v>
       </c>
       <c r="K189" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="L189" t="s">
         <v>21</v>
@@ -11464,19 +11601,19 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B190" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C190" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D190" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E190" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -11502,19 +11639,19 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B191" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C191" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D191" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E191" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F191" t="s">
         <v>17</v>
@@ -11532,7 +11669,7 @@
         <v>21</v>
       </c>
       <c r="K191" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="L191" t="s">
         <v>21</v>
@@ -11540,19 +11677,19 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B192" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C192" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="D192" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E192" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -11578,19 +11715,19 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B193" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C193" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D193" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E193" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -11616,19 +11753,19 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B194" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C194" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D194" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E194" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -11654,19 +11791,19 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B195" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C195" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D195" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E195" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F195" t="s">
         <v>17</v>
@@ -11684,7 +11821,7 @@
         <v>21</v>
       </c>
       <c r="K195" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="L195" t="s">
         <v>21</v>
@@ -11692,19 +11829,19 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B196" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C196" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D196" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E196" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="F196" t="s">
         <v>17</v>
@@ -11722,7 +11859,7 @@
         <v>21</v>
       </c>
       <c r="K196" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="L196" t="s">
         <v>21</v>
@@ -11730,19 +11867,19 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B197" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C197" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D197" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E197" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="F197" t="s">
         <v>17</v>
@@ -11768,19 +11905,19 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B198" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C198" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D198" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E198" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -11798,7 +11935,7 @@
         <v>21</v>
       </c>
       <c r="K198" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="L198" t="s">
         <v>21</v>
@@ -11806,19 +11943,19 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="B199" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="C199" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D199" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E199" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="F199" t="s">
         <v>17</v>
@@ -11844,19 +11981,19 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B200" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="C200" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D200" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E200" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F200" t="s">
         <v>17</v>
@@ -11874,7 +12011,7 @@
         <v>21</v>
       </c>
       <c r="K200" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="L200" t="s">
         <v>21</v>
@@ -11882,19 +12019,19 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B201" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C201" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D201" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E201" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="F201" t="s">
         <v>17</v>
@@ -11912,7 +12049,7 @@
         <v>21</v>
       </c>
       <c r="K201" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="L201" t="s">
         <v>634</v>
@@ -11920,13 +12057,13 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C202" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>1093</v>
+        <v>1095</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -11939,6 +12076,8 @@
     <hyperlink ref="D98" r:id="rId6" display="jeromedenny2017@gmail.com"/>
     <hyperlink ref="D91" r:id="rId7" display="u3003098@rajagiri.edu.in"/>
     <hyperlink ref="D42" r:id="rId8" display="u200507@rajagiri.edu.in" tooltip="mailto:u200507@rajagiri.edu.in"/>
+    <hyperlink ref="D144" r:id="rId9" display="salmansidhik999@gmail.com"/>
+    <hyperlink ref="D143" r:id="rId10" display="shivasundar911@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
